--- a/data/sports_data.xlsx
+++ b/data/sports_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>grade_score</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>fqnsczh8ka2335r</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>dnkdi39gyiuyo1j</t>
@@ -805,8 +802,8 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -853,7 +850,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -867,8 +864,8 @@
       <c r="E3" t="n">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -915,7 +912,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -929,8 +926,8 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -977,7 +974,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -991,8 +988,8 @@
       <c r="E5" t="n">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -1039,7 +1036,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -1053,8 +1050,8 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1101,7 +1098,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -1115,8 +1112,8 @@
       <c r="E7" t="n">
         <v>102</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1163,7 +1160,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -1177,8 +1174,8 @@
       <c r="E8" t="n">
         <v>68</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1225,7 +1222,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="n">
         <v>6</v>
@@ -1239,8 +1236,8 @@
       <c r="E9" t="n">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1287,7 +1284,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
@@ -1301,8 +1298,8 @@
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
@@ -1363,8 +1360,8 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
@@ -1425,8 +1422,8 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>20</v>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1473,7 +1470,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
@@ -1487,8 +1484,8 @@
       <c r="E13" t="n">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1535,7 +1532,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="n">
         <v>6</v>
@@ -1549,8 +1546,8 @@
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1597,7 +1594,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="n">
         <v>6</v>
@@ -1611,8 +1608,8 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>20</v>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1659,7 +1656,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="n">
         <v>6</v>
@@ -1673,8 +1670,8 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1721,7 +1718,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>6</v>
@@ -1735,8 +1732,8 @@
       <c r="E17" t="n">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
@@ -1797,8 +1794,8 @@
       <c r="E18" t="n">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>20</v>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1845,7 +1842,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
@@ -1859,8 +1856,8 @@
       <c r="E19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>20</v>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1907,7 +1904,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="n">
         <v>6</v>
@@ -1921,8 +1918,8 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
-        <v>20</v>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1969,7 +1966,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
         <v>6</v>
@@ -1983,8 +1980,8 @@
       <c r="E21" t="n">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
-        <v>20</v>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2031,7 +2028,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="n">
         <v>6</v>
@@ -2045,8 +2042,8 @@
       <c r="E22" t="n">
         <v>14</v>
       </c>
-      <c r="F22" t="s">
-        <v>20</v>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2093,7 +2090,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="n">
         <v>6</v>
@@ -2107,8 +2104,8 @@
       <c r="E23" t="n">
         <v>28</v>
       </c>
-      <c r="F23" t="s">
-        <v>20</v>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2155,7 +2152,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="n">
         <v>6</v>
@@ -2169,8 +2166,8 @@
       <c r="E24" t="n">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="n">
         <v>6</v>
@@ -2231,8 +2228,8 @@
       <c r="E25" t="n">
         <v>20</v>
       </c>
-      <c r="F25" t="s">
-        <v>20</v>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2279,7 +2276,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="n">
         <v>6</v>
@@ -2293,8 +2290,8 @@
       <c r="E26" t="n">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>20</v>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2341,7 +2338,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="n">
         <v>6</v>
@@ -2355,8 +2352,8 @@
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>20</v>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2403,7 +2400,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" t="n">
         <v>6</v>
@@ -2417,8 +2414,8 @@
       <c r="E28" t="n">
         <v>2</v>
       </c>
-      <c r="F28" t="s">
-        <v>20</v>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2465,7 +2462,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -2479,8 +2476,8 @@
       <c r="E29" t="n">
         <v>3</v>
       </c>
-      <c r="F29" t="s">
-        <v>20</v>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2527,7 +2524,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" t="n">
         <v>6</v>
@@ -2541,8 +2538,8 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
-        <v>20</v>
+      <c r="F30" t="n">
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2589,7 +2586,7 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" t="n">
         <v>6</v>
@@ -2603,8 +2600,8 @@
       <c r="E31" t="n">
         <v>2</v>
       </c>
-      <c r="F31" t="s">
-        <v>20</v>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2651,7 +2648,7 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="n">
         <v>6</v>
@@ -2665,8 +2662,8 @@
       <c r="E32" t="n">
         <v>3</v>
       </c>
-      <c r="F32" t="s">
-        <v>20</v>
+      <c r="F32" t="n">
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2713,7 +2710,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" t="n">
         <v>6</v>
@@ -2727,8 +2724,8 @@
       <c r="E33" t="n">
         <v>24</v>
       </c>
-      <c r="F33" t="s">
-        <v>20</v>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2775,7 +2772,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="n">
         <v>6</v>
@@ -2789,8 +2786,8 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
-        <v>20</v>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2837,7 +2834,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" t="n">
         <v>6</v>
@@ -2851,8 +2848,8 @@
       <c r="E35" t="n">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
-        <v>20</v>
+      <c r="F35" t="n">
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2899,7 +2896,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" t="n">
         <v>6</v>
@@ -2913,8 +2910,8 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
-        <v>20</v>
+      <c r="F36" t="n">
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2961,7 +2958,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
@@ -2975,8 +2972,8 @@
       <c r="E37" t="n">
         <v>7</v>
       </c>
-      <c r="F37" t="s">
-        <v>20</v>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3023,7 +3020,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" t="n">
         <v>6</v>
@@ -3037,8 +3034,8 @@
       <c r="E38" t="n">
         <v>46</v>
       </c>
-      <c r="F38" t="s">
-        <v>20</v>
+      <c r="F38" t="n">
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3085,7 +3082,7 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="n">
         <v>6</v>
@@ -3099,8 +3096,8 @@
       <c r="E39" t="n">
         <v>2</v>
       </c>
-      <c r="F39" t="s">
-        <v>20</v>
+      <c r="F39" t="n">
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3147,7 +3144,7 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="n">
         <v>6</v>
@@ -3161,8 +3158,8 @@
       <c r="E40" t="n">
         <v>24</v>
       </c>
-      <c r="F40" t="s">
-        <v>20</v>
+      <c r="F40" t="n">
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3209,7 +3206,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" t="n">
         <v>6</v>
@@ -3223,8 +3220,8 @@
       <c r="E41" t="n">
         <v>19</v>
       </c>
-      <c r="F41" t="s">
-        <v>20</v>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3271,7 +3268,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" t="n">
         <v>6</v>
@@ -3285,8 +3282,8 @@
       <c r="E42" t="n">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
-        <v>20</v>
+      <c r="F42" t="n">
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3333,7 +3330,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
         <v>6</v>
@@ -3347,8 +3344,8 @@
       <c r="E43" t="n">
         <v>21</v>
       </c>
-      <c r="F43" t="s">
-        <v>20</v>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3395,7 +3392,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
         <v>6</v>
@@ -3409,8 +3406,8 @@
       <c r="E44" t="n">
         <v>50</v>
       </c>
-      <c r="F44" t="s">
-        <v>20</v>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3457,7 +3454,7 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
         <v>6</v>
@@ -3471,8 +3468,8 @@
       <c r="E45" t="n">
         <v>2</v>
       </c>
-      <c r="F45" t="s">
-        <v>20</v>
+      <c r="F45" t="n">
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3519,7 +3516,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" t="n">
         <v>6</v>
@@ -3533,8 +3530,8 @@
       <c r="E46" t="n">
         <v>6</v>
       </c>
-      <c r="F46" t="s">
-        <v>20</v>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3581,7 +3578,7 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" t="n">
         <v>6</v>
@@ -3595,8 +3592,8 @@
       <c r="E47" t="n">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
-        <v>20</v>
+      <c r="F47" t="n">
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3643,7 +3640,7 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -3657,8 +3654,8 @@
       <c r="E48" t="n">
         <v>6</v>
       </c>
-      <c r="F48" t="s">
-        <v>20</v>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3705,7 +3702,7 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" t="n">
         <v>6</v>
@@ -3719,8 +3716,8 @@
       <c r="E49" t="n">
         <v>42</v>
       </c>
-      <c r="F49" t="s">
-        <v>20</v>
+      <c r="F49" t="n">
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3767,7 +3764,7 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" t="n">
         <v>6</v>
@@ -3781,8 +3778,8 @@
       <c r="E50" t="n">
         <v>3</v>
       </c>
-      <c r="F50" t="s">
-        <v>20</v>
+      <c r="F50" t="n">
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3829,7 +3826,7 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" t="n">
         <v>6</v>
@@ -3843,8 +3840,8 @@
       <c r="E51" t="n">
         <v>3</v>
       </c>
-      <c r="F51" t="s">
-        <v>20</v>
+      <c r="F51" t="n">
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3891,7 +3888,7 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" t="n">
         <v>6</v>
@@ -3905,8 +3902,8 @@
       <c r="E52" t="n">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
-        <v>20</v>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3953,7 +3950,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" t="n">
         <v>6</v>
@@ -3967,8 +3964,8 @@
       <c r="E53" t="n">
         <v>3</v>
       </c>
-      <c r="F53" t="s">
-        <v>20</v>
+      <c r="F53" t="n">
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" t="n">
         <v>6</v>
@@ -4029,8 +4026,8 @@
       <c r="E54" t="n">
         <v>4</v>
       </c>
-      <c r="F54" t="s">
-        <v>20</v>
+      <c r="F54" t="n">
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" t="n">
         <v>6</v>
@@ -4091,8 +4088,8 @@
       <c r="E55" t="n">
         <v>2</v>
       </c>
-      <c r="F55" t="s">
-        <v>20</v>
+      <c r="F55" t="n">
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4139,7 +4136,7 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" t="n">
         <v>6</v>
@@ -4153,8 +4150,8 @@
       <c r="E56" t="n">
         <v>3</v>
       </c>
-      <c r="F56" t="s">
-        <v>20</v>
+      <c r="F56" t="n">
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4201,7 +4198,7 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" t="n">
         <v>6</v>
@@ -4215,8 +4212,8 @@
       <c r="E57" t="n">
         <v>6</v>
       </c>
-      <c r="F57" t="s">
-        <v>20</v>
+      <c r="F57" t="n">
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4263,7 +4260,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" t="n">
         <v>6</v>
@@ -4277,8 +4274,8 @@
       <c r="E58" t="n">
         <v>2</v>
       </c>
-      <c r="F58" t="s">
-        <v>20</v>
+      <c r="F58" t="n">
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4325,7 +4322,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" t="n">
         <v>6</v>
@@ -4339,8 +4336,8 @@
       <c r="E59" t="n">
         <v>2</v>
       </c>
-      <c r="F59" t="s">
-        <v>20</v>
+      <c r="F59" t="n">
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4387,7 +4384,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" t="n">
         <v>6</v>
@@ -4401,8 +4398,8 @@
       <c r="E60" t="n">
         <v>22</v>
       </c>
-      <c r="F60" t="s">
-        <v>20</v>
+      <c r="F60" t="n">
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4449,7 +4446,7 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" t="n">
         <v>6</v>
@@ -4463,8 +4460,8 @@
       <c r="E61" t="n">
         <v>6</v>
       </c>
-      <c r="F61" t="s">
-        <v>20</v>
+      <c r="F61" t="n">
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4511,7 +4508,7 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" t="n">
         <v>6</v>
@@ -4525,8 +4522,8 @@
       <c r="E62" t="n">
         <v>41</v>
       </c>
-      <c r="F62" t="s">
-        <v>20</v>
+      <c r="F62" t="n">
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4573,7 +4570,7 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" t="n">
         <v>6</v>
@@ -4587,8 +4584,8 @@
       <c r="E63" t="n">
         <v>50</v>
       </c>
-      <c r="F63" t="s">
-        <v>20</v>
+      <c r="F63" t="n">
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4635,7 +4632,7 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" t="n">
         <v>6</v>
@@ -4649,8 +4646,8 @@
       <c r="E64" t="n">
         <v>2</v>
       </c>
-      <c r="F64" t="s">
-        <v>20</v>
+      <c r="F64" t="n">
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4697,7 +4694,7 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" t="n">
         <v>6</v>
@@ -4711,8 +4708,8 @@
       <c r="E65" t="n">
         <v>2</v>
       </c>
-      <c r="F65" t="s">
-        <v>20</v>
+      <c r="F65" t="n">
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4759,7 +4756,7 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" t="n">
         <v>6</v>
@@ -4773,8 +4770,8 @@
       <c r="E66" t="n">
         <v>6</v>
       </c>
-      <c r="F66" t="s">
-        <v>20</v>
+      <c r="F66" t="n">
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4821,7 +4818,7 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" t="n">
         <v>6</v>
@@ -4835,8 +4832,8 @@
       <c r="E67" t="n">
         <v>2</v>
       </c>
-      <c r="F67" t="s">
-        <v>20</v>
+      <c r="F67" t="n">
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4883,7 +4880,7 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" t="n">
         <v>6</v>
@@ -4897,8 +4894,8 @@
       <c r="E68" t="n">
         <v>3</v>
       </c>
-      <c r="F68" t="s">
-        <v>20</v>
+      <c r="F68" t="n">
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4945,7 +4942,7 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" t="n">
         <v>6</v>
@@ -4959,8 +4956,8 @@
       <c r="E69" t="n">
         <v>2</v>
       </c>
-      <c r="F69" t="s">
-        <v>20</v>
+      <c r="F69" t="n">
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5007,7 +5004,7 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" t="n">
         <v>6</v>
@@ -5021,8 +5018,8 @@
       <c r="E70" t="n">
         <v>16</v>
       </c>
-      <c r="F70" t="s">
-        <v>20</v>
+      <c r="F70" t="n">
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5069,7 +5066,7 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" t="n">
         <v>6</v>
@@ -5083,8 +5080,8 @@
       <c r="E71" t="n">
         <v>2</v>
       </c>
-      <c r="F71" t="s">
-        <v>20</v>
+      <c r="F71" t="n">
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5131,7 +5128,7 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" t="n">
         <v>6</v>
@@ -5145,8 +5142,8 @@
       <c r="E72" t="n">
         <v>2</v>
       </c>
-      <c r="F72" t="s">
-        <v>20</v>
+      <c r="F72" t="n">
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5193,7 +5190,7 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" t="n">
         <v>6</v>
@@ -5207,8 +5204,8 @@
       <c r="E73" t="n">
         <v>7</v>
       </c>
-      <c r="F73" t="s">
-        <v>20</v>
+      <c r="F73" t="n">
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5255,7 +5252,7 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" t="n">
         <v>6</v>
@@ -5269,8 +5266,8 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
-      <c r="F74" t="s">
-        <v>20</v>
+      <c r="F74" t="n">
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5317,7 +5314,7 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" t="n">
         <v>6</v>
@@ -5331,8 +5328,8 @@
       <c r="E75" t="n">
         <v>6</v>
       </c>
-      <c r="F75" t="s">
-        <v>20</v>
+      <c r="F75" t="n">
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5379,7 +5376,7 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" t="n">
         <v>6</v>
@@ -5393,8 +5390,8 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="F76" t="s">
-        <v>20</v>
+      <c r="F76" t="n">
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5441,7 +5438,7 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" t="n">
         <v>6</v>
@@ -5455,8 +5452,8 @@
       <c r="E77" t="n">
         <v>1</v>
       </c>
-      <c r="F77" t="s">
-        <v>20</v>
+      <c r="F77" t="n">
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5503,7 +5500,7 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" t="n">
         <v>6</v>
@@ -5517,8 +5514,8 @@
       <c r="E78" t="n">
         <v>2</v>
       </c>
-      <c r="F78" t="s">
-        <v>20</v>
+      <c r="F78" t="n">
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5565,7 +5562,7 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B79" t="n">
         <v>6</v>
@@ -5579,8 +5576,8 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
-      <c r="F79" t="s">
-        <v>20</v>
+      <c r="F79" t="n">
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5627,7 +5624,7 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" t="n">
         <v>6</v>
@@ -5641,8 +5638,8 @@
       <c r="E80" t="n">
         <v>2</v>
       </c>
-      <c r="F80" t="s">
-        <v>20</v>
+      <c r="F80" t="n">
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5689,7 +5686,7 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" t="n">
         <v>6</v>
@@ -5703,8 +5700,8 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="F81" t="s">
-        <v>20</v>
+      <c r="F81" t="n">
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5751,7 +5748,7 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82" t="n">
         <v>6</v>
@@ -5765,8 +5762,8 @@
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" t="s">
-        <v>20</v>
+      <c r="F82" t="n">
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5813,7 +5810,7 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B83" t="n">
         <v>6</v>
@@ -5827,8 +5824,8 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="F83" t="s">
-        <v>20</v>
+      <c r="F83" t="n">
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5875,7 +5872,7 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84" t="n">
         <v>6</v>
@@ -5889,8 +5886,8 @@
       <c r="E84" t="n">
         <v>1</v>
       </c>
-      <c r="F84" t="s">
-        <v>20</v>
+      <c r="F84" t="n">
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5937,7 +5934,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B85" t="n">
         <v>6</v>
@@ -5951,8 +5948,8 @@
       <c r="E85" t="n">
         <v>1</v>
       </c>
-      <c r="F85" t="s">
-        <v>20</v>
+      <c r="F85" t="n">
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5999,7 +5996,7 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86" t="n">
         <v>6</v>
@@ -6013,8 +6010,8 @@
       <c r="E86" t="n">
         <v>0</v>
       </c>
-      <c r="F86" t="s">
-        <v>20</v>
+      <c r="F86" t="n">
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6061,7 +6058,7 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" t="n">
         <v>6</v>
@@ -6075,8 +6072,8 @@
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" t="s">
-        <v>20</v>
+      <c r="F87" t="n">
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6123,7 +6120,7 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" t="n">
         <v>6</v>
@@ -6137,8 +6134,8 @@
       <c r="E88" t="n">
         <v>0</v>
       </c>
-      <c r="F88" t="s">
-        <v>20</v>
+      <c r="F88" t="n">
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6185,7 +6182,7 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B89" t="n">
         <v>6</v>
@@ -6199,8 +6196,8 @@
       <c r="E89" t="n">
         <v>3</v>
       </c>
-      <c r="F89" t="s">
-        <v>20</v>
+      <c r="F89" t="n">
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6247,7 +6244,7 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90" t="n">
         <v>6</v>
@@ -6261,8 +6258,8 @@
       <c r="E90" t="n">
         <v>1</v>
       </c>
-      <c r="F90" t="s">
-        <v>20</v>
+      <c r="F90" t="n">
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6309,7 +6306,7 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" t="n">
         <v>6</v>
@@ -6323,8 +6320,8 @@
       <c r="E91" t="n">
         <v>1</v>
       </c>
-      <c r="F91" t="s">
-        <v>20</v>
+      <c r="F91" t="n">
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6371,7 +6368,7 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B92" t="n">
         <v>6</v>
@@ -6385,8 +6382,8 @@
       <c r="E92" t="n">
         <v>4</v>
       </c>
-      <c r="F92" t="s">
-        <v>20</v>
+      <c r="F92" t="n">
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6433,7 +6430,7 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" t="n">
         <v>6</v>
@@ -6447,8 +6444,8 @@
       <c r="E93" t="n">
         <v>2</v>
       </c>
-      <c r="F93" t="s">
-        <v>20</v>
+      <c r="F93" t="n">
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6495,7 +6492,7 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B94" t="n">
         <v>6</v>
@@ -6509,8 +6506,8 @@
       <c r="E94" t="n">
         <v>9</v>
       </c>
-      <c r="F94" t="s">
-        <v>20</v>
+      <c r="F94" t="n">
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6557,7 +6554,7 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B95" t="n">
         <v>6</v>
@@ -6571,8 +6568,8 @@
       <c r="E95" t="n">
         <v>1</v>
       </c>
-      <c r="F95" t="s">
-        <v>20</v>
+      <c r="F95" t="n">
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6619,7 +6616,7 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" t="n">
         <v>6</v>
@@ -6633,8 +6630,8 @@
       <c r="E96" t="n">
         <v>1</v>
       </c>
-      <c r="F96" t="s">
-        <v>20</v>
+      <c r="F96" t="n">
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6681,7 +6678,7 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" t="n">
         <v>6</v>
@@ -6695,8 +6692,8 @@
       <c r="E97" t="n">
         <v>1</v>
       </c>
-      <c r="F97" t="s">
-        <v>20</v>
+      <c r="F97" t="n">
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6743,7 +6740,7 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B98" t="n">
         <v>6</v>
@@ -6757,8 +6754,8 @@
       <c r="E98" t="n">
         <v>1</v>
       </c>
-      <c r="F98" t="s">
-        <v>20</v>
+      <c r="F98" t="n">
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6805,7 +6802,7 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" t="n">
         <v>6</v>
@@ -6819,8 +6816,8 @@
       <c r="E99" t="n">
         <v>1</v>
       </c>
-      <c r="F99" t="s">
-        <v>20</v>
+      <c r="F99" t="n">
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6867,7 +6864,7 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" t="n">
         <v>6</v>
@@ -6881,8 +6878,8 @@
       <c r="E100" t="n">
         <v>1</v>
       </c>
-      <c r="F100" t="s">
-        <v>20</v>
+      <c r="F100" t="n">
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6929,7 +6926,7 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" t="n">
         <v>6</v>
@@ -6943,8 +6940,8 @@
       <c r="E101" t="n">
         <v>2</v>
       </c>
-      <c r="F101" t="s">
-        <v>20</v>
+      <c r="F101" t="n">
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
